--- a/Blog-Skeleton/Blog.UI.Tests/DataDriven/BlogUI.xlsx
+++ b/Blog-Skeleton/Blog.UI.Tests/DataDriven/BlogUI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Key</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>bce</t>
+  </si>
+  <si>
+    <t>Tsvetelina@abv.bg</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -105,8 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -413,7 +418,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C2" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,71 +428,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -496,31 +501,35 @@
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
